--- a/data/hospital_admittance.xlsx
+++ b/data/hospital_admittance.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Library/Mobile Documents/com~apple~CloudDocs/Studie/Kandidat/1. semester/Stochastic Simulation/Projekt/project_code/PandemicModelling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD04F139-0CCF-1B49-88E8-90B57217B738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D7F911-A69C-FE49-B6C8-96369347268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1100" yWindow="740" windowWidth="28240" windowHeight="16600" xr2:uid="{F7886133-991A-2544-BB32-7645CF8CEC57}"/>
+    <workbookView xWindow="12720" yWindow="460" windowWidth="28240" windowHeight="16600" activeTab="2" xr2:uid="{F7886133-991A-2544-BB32-7645CF8CEC57}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
     <sheet name="Intensiv" sheetId="2" r:id="rId2"/>
+    <sheet name="Dødsfald" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -100,6 +101,45 @@
   </si>
   <si>
     <t>Indlagte (Ratio)</t>
+  </si>
+  <si>
+    <t>Kvinder (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kvinder (antal)</t>
+  </si>
+  <si>
+    <t>Mænd (antal)</t>
+  </si>
+  <si>
+    <t>Mænd (%)</t>
+  </si>
+  <si>
+    <t>Under 65 (antal)</t>
+  </si>
+  <si>
+    <t>Under 65 (%)</t>
+  </si>
+  <si>
+    <t>65+ (antal)</t>
+  </si>
+  <si>
+    <t>65+ (%)</t>
+  </si>
+  <si>
+    <t>Alle (antal)</t>
+  </si>
+  <si>
+    <t>Alle (%)</t>
+  </si>
+  <si>
+    <t>Indlagt</t>
+  </si>
+  <si>
+    <t>Udskrevet</t>
+  </si>
+  <si>
+    <t>Død</t>
   </si>
 </sst>
 </file>
@@ -460,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83C19A2-BE29-ED48-B692-A4B9D9C419CD}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -990,4 +1030,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F204C81-B380-7949-A6D7-8BA6BDC7A2E5}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>75</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>124</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>667</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>697</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>684</v>
+      </c>
+      <c r="G3">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>680</v>
+      </c>
+      <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>1364</v>
+      </c>
+      <c r="K3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>203</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>320</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>337</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>845</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>980</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>750</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>1075</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>1825</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>